--- a/German_Tales/Data/Fehlende_Zeilen_JR.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/German_Tales/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A02A9-2C01-B94D-8C12-399A640FCEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D6A89-F4F5-FA42-81AE-DA7959180A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="15440" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20680" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>Lustig sein, lustig sein, muss ja die Engel [freuen]</t>
+  </si>
+  <si>
+    <t>Mundart im untern Gurk-, Glan- und Görtschiz-Thale in Kärnten.</t>
+  </si>
+  <si>
+    <t>Mai Schozarl.</t>
+  </si>
+  <si>
+    <t>Mein Schatz</t>
+  </si>
+  <si>
+    <t>Mehrfachnennung</t>
   </si>
 </sst>
 </file>
@@ -298,12 +310,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -329,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +366,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -718,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -766,10 +788,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1328,50 +1350,85 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="8">
+        <v>784</v>
+      </c>
+      <c r="E15" s="8">
+        <v>784</v>
+      </c>
+      <c r="F15" s="8">
+        <v>791</v>
+      </c>
+      <c r="G15" s="8">
+        <v>791</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>831</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>831</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="3">
         <v>838</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>838</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="3" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S16" s="10" t="s">
         <v>21</v>
       </c>
     </row>
